--- a/examples/sources/data/unsolved/to_schedule/2019-04-16.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-16.xlsx
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105">
         <v>1</v>
